--- a/biology/Zoologie/Fictotama/Fictotama.xlsx
+++ b/biology/Zoologie/Fictotama/Fictotama.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Fictotama est un  genre fossile d'araignées aranéomorphes de la famille des Hersiliidae.
 </t>
@@ -511,9 +523,11 @@
           <t>Distribution</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Les espèces de ce genre ont été découvertes dans de l'ambre du Chiapas au Mexique et de la République dominicaine[1]. Elles datent du Paléogène et du Néogène[2].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Les espèces de ce genre ont été découvertes dans de l'ambre du Chiapas au Mexique et de la République dominicaine. Elles datent du Paléogène et du Néogène.
 </t>
         </is>
       </c>
@@ -542,9 +556,11 @@
           <t>Taxonomie</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">La validité de ce genre est remise en cause par Penney[3] mais il a été utilisé par Wunderlich en 2011[4].
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">La validité de ce genre est remise en cause par Penney mais il a été utilisé par Wunderlich en 2011.
 </t>
         </is>
       </c>
@@ -573,9 +589,11 @@
           <t>Liste des espèces</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t>Selon The World Spider Catalog 15.0[2] :
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>Selon The World Spider Catalog 15.0 :
 †Fictotama extincta Petrunkevitch, 1963
 †Fictotama maculosa Wunderlich, 2011</t>
         </is>
@@ -605,7 +623,9 @@
           <t>Publication originale</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
         <is>
           <t>(en) Alexander Ivanovitch Petrunkevitch, Chiapas amber spiders., vol. 31, coll. « University of California Publications in Entomology », 1963, 1–40 p..</t>
         </is>
